--- a/data/baseline_data/sub-national/Documentation/Book1.xlsx
+++ b/data/baseline_data/sub-national/Documentation/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="24915" windowHeight="14115"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="24915" windowHeight="14055" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7169" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7829" uniqueCount="806">
   <si>
     <t>00EJ</t>
   </si>
@@ -1975,6 +1975,468 @@
   </si>
   <si>
     <t>Weymouth and Portland</t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t>East Midlands</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>North East</t>
+  </si>
+  <si>
+    <t>North West</t>
+  </si>
+  <si>
+    <t>South East</t>
+  </si>
+  <si>
+    <t>South West</t>
+  </si>
+  <si>
+    <t>West Midlands</t>
+  </si>
+  <si>
+    <t>Yorkshire and The Humber</t>
+  </si>
+  <si>
+    <t>ONS website</t>
+  </si>
+  <si>
+    <t>Cambridge </t>
+  </si>
+  <si>
+    <t>East Cambridgeshire </t>
+  </si>
+  <si>
+    <t>Fenland </t>
+  </si>
+  <si>
+    <t>Huntingdonshire </t>
+  </si>
+  <si>
+    <t>Babergh </t>
+  </si>
+  <si>
+    <t>Forest Heath </t>
+  </si>
+  <si>
+    <t>Ipswich </t>
+  </si>
+  <si>
+    <t>Mid Suffolk </t>
+  </si>
+  <si>
+    <t>St. Edmundsbury </t>
+  </si>
+  <si>
+    <t>Suffolk Coastal </t>
+  </si>
+  <si>
+    <t>Broxbourne </t>
+  </si>
+  <si>
+    <t>Dacorum </t>
+  </si>
+  <si>
+    <t>East Hertfordshire </t>
+  </si>
+  <si>
+    <t>Hertsmere </t>
+  </si>
+  <si>
+    <t>North Hertfordshire </t>
+  </si>
+  <si>
+    <t>St Albans </t>
+  </si>
+  <si>
+    <t>Stevenage </t>
+  </si>
+  <si>
+    <t>Three Rivers </t>
+  </si>
+  <si>
+    <t>Watford </t>
+  </si>
+  <si>
+    <t>Epping Forest </t>
+  </si>
+  <si>
+    <t>Harlow </t>
+  </si>
+  <si>
+    <t>Hartlepool </t>
+  </si>
+  <si>
+    <t>Middlesbrough </t>
+  </si>
+  <si>
+    <t>Gateshead </t>
+  </si>
+  <si>
+    <t>Newcastle upon Tyne </t>
+  </si>
+  <si>
+    <t>North Tyneside </t>
+  </si>
+  <si>
+    <t>Allerdale </t>
+  </si>
+  <si>
+    <t>Barrow-in-Furness </t>
+  </si>
+  <si>
+    <t>Carlisle </t>
+  </si>
+  <si>
+    <t>Eden </t>
+  </si>
+  <si>
+    <t>Stockport </t>
+  </si>
+  <si>
+    <t>Knowsley </t>
+  </si>
+  <si>
+    <t>St Helens </t>
+  </si>
+  <si>
+    <t>Bracknell Forest </t>
+  </si>
+  <si>
+    <t>Reading </t>
+  </si>
+  <si>
+    <t>Slough </t>
+  </si>
+  <si>
+    <t>West Berkshire </t>
+  </si>
+  <si>
+    <t>Windsor and Maidenhead </t>
+  </si>
+  <si>
+    <t>Aylesbury Vale </t>
+  </si>
+  <si>
+    <t>Chiltern </t>
+  </si>
+  <si>
+    <t>South Bucks </t>
+  </si>
+  <si>
+    <t>Cherwell </t>
+  </si>
+  <si>
+    <t>Oxford </t>
+  </si>
+  <si>
+    <t>South Oxfordshire </t>
+  </si>
+  <si>
+    <t>Vale of White Horse </t>
+  </si>
+  <si>
+    <t>Eastbourne </t>
+  </si>
+  <si>
+    <t>Hastings </t>
+  </si>
+  <si>
+    <t>Lewes </t>
+  </si>
+  <si>
+    <t>Rother </t>
+  </si>
+  <si>
+    <t>Elmbridge </t>
+  </si>
+  <si>
+    <t>Guildford </t>
+  </si>
+  <si>
+    <t>Runnymede </t>
+  </si>
+  <si>
+    <t>Spelthorne </t>
+  </si>
+  <si>
+    <t>Surrey Heath </t>
+  </si>
+  <si>
+    <t>Waverley </t>
+  </si>
+  <si>
+    <t>Crawley </t>
+  </si>
+  <si>
+    <t>Horsham </t>
+  </si>
+  <si>
+    <t>Mid Sussex </t>
+  </si>
+  <si>
+    <t>Chicherster</t>
+  </si>
+  <si>
+    <t>East Hampshire </t>
+  </si>
+  <si>
+    <t>New Forest </t>
+  </si>
+  <si>
+    <t>Test Valley </t>
+  </si>
+  <si>
+    <t>Bath and North East Somerset </t>
+  </si>
+  <si>
+    <t>North Somerset </t>
+  </si>
+  <si>
+    <t>Cheltenham </t>
+  </si>
+  <si>
+    <t>Cotswold </t>
+  </si>
+  <si>
+    <t>Forest of Dean </t>
+  </si>
+  <si>
+    <t>Gloucester </t>
+  </si>
+  <si>
+    <t>Stroud </t>
+  </si>
+  <si>
+    <t>Bournemouth </t>
+  </si>
+  <si>
+    <t>Christchurch </t>
+  </si>
+  <si>
+    <t>East Dorset </t>
+  </si>
+  <si>
+    <t>North Dorset </t>
+  </si>
+  <si>
+    <t>Purbeck </t>
+  </si>
+  <si>
+    <t>West Dorset </t>
+  </si>
+  <si>
+    <t>Mendip </t>
+  </si>
+  <si>
+    <t>Sedgemoor </t>
+  </si>
+  <si>
+    <t>South Somerset </t>
+  </si>
+  <si>
+    <t>Taunton Deane </t>
+  </si>
+  <si>
+    <t>Cornwall </t>
+  </si>
+  <si>
+    <t>East Devon </t>
+  </si>
+  <si>
+    <t>Exeter </t>
+  </si>
+  <si>
+    <t>Mid Devon </t>
+  </si>
+  <si>
+    <t>North Devon </t>
+  </si>
+  <si>
+    <t>South Hams </t>
+  </si>
+  <si>
+    <t>Teignbridge </t>
+  </si>
+  <si>
+    <t>Torridge </t>
+  </si>
+  <si>
+    <t>Bromsgrove </t>
+  </si>
+  <si>
+    <t>Malvern Hills </t>
+  </si>
+  <si>
+    <t>Redditch </t>
+  </si>
+  <si>
+    <t>Worcester </t>
+  </si>
+  <si>
+    <t>Wychavon </t>
+  </si>
+  <si>
+    <t>North Warwickshire </t>
+  </si>
+  <si>
+    <t>Nuneaton and Bedworth </t>
+  </si>
+  <si>
+    <t>Rugby </t>
+  </si>
+  <si>
+    <t>Stratford-on-Avon </t>
+  </si>
+  <si>
+    <t>Cannock Chase </t>
+  </si>
+  <si>
+    <t>East Staffordshire </t>
+  </si>
+  <si>
+    <t>Lichfield </t>
+  </si>
+  <si>
+    <t>Newcastle-under-Lyme </t>
+  </si>
+  <si>
+    <t>South Staffordshire </t>
+  </si>
+  <si>
+    <t>Stafford </t>
+  </si>
+  <si>
+    <t>Staffordshire Moorlands </t>
+  </si>
+  <si>
+    <t>North East Lincolnshire </t>
+  </si>
+  <si>
+    <t>Craven </t>
+  </si>
+  <si>
+    <t>Hambleton </t>
+  </si>
+  <si>
+    <t>Harrogate </t>
+  </si>
+  <si>
+    <t>Richmondshire </t>
+  </si>
+  <si>
+    <t>Ryedale </t>
+  </si>
+  <si>
+    <t>Scarborough </t>
+  </si>
+  <si>
+    <t>Barnsley </t>
+  </si>
+  <si>
+    <t>Doncaster </t>
+  </si>
+  <si>
+    <t>Calderdale </t>
+  </si>
+  <si>
+    <t>Bolsover </t>
+  </si>
+  <si>
+    <t>Chesterfield </t>
+  </si>
+  <si>
+    <t>North East Derbyshire</t>
+  </si>
+  <si>
+    <t>Amber Valley </t>
+  </si>
+  <si>
+    <t>Derbyshire Dales </t>
+  </si>
+  <si>
+    <t>Erewash </t>
+  </si>
+  <si>
+    <t>High Peak </t>
+  </si>
+  <si>
+    <t>Ashfield </t>
+  </si>
+  <si>
+    <t>Bassetlaw </t>
+  </si>
+  <si>
+    <t>Mansfield </t>
+  </si>
+  <si>
+    <t>Broxtowe </t>
+  </si>
+  <si>
+    <t>Gedling </t>
+  </si>
+  <si>
+    <t>Blaby </t>
+  </si>
+  <si>
+    <t>Charnwood </t>
+  </si>
+  <si>
+    <t>Harborough </t>
+  </si>
+  <si>
+    <t>Hinckley and Bosworth </t>
+  </si>
+  <si>
+    <t>Melton </t>
+  </si>
+  <si>
+    <t>North West Leicestershire </t>
+  </si>
+  <si>
+    <t>Oadby and Wigston </t>
+  </si>
+  <si>
+    <t>Daventry </t>
+  </si>
+  <si>
+    <t>Northampton </t>
+  </si>
+  <si>
+    <t>South Northamptonshire</t>
+  </si>
+  <si>
+    <t>Corby </t>
+  </si>
+  <si>
+    <t>East Northamptonshire </t>
+  </si>
+  <si>
+    <t>Kettering </t>
+  </si>
+  <si>
+    <t>Boston </t>
+  </si>
+  <si>
+    <t>East Lindsey </t>
+  </si>
+  <si>
+    <t>Lincoln </t>
+  </si>
+  <si>
+    <t>North Kesteven </t>
+  </si>
+  <si>
+    <t>South Holland </t>
+  </si>
+  <si>
+    <t>South Kesteven </t>
   </si>
 </sst>
 </file>
@@ -2237,7 +2699,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2415,6 +2877,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2622,12 +3090,13 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="80" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="86">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3016,8 +3485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6147" workbookViewId="0">
-      <selection activeCell="F6167" sqref="F6167"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3594,7 +4063,7 @@
         <v>00EC</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>7</v>
       </c>
@@ -58781,564 +59250,3852 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B326"/>
+  <dimension ref="A1:AD326"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="4" width="9.140625" style="2"/>
+    <col min="5" max="6" width="25.7109375" style="2" customWidth="1"/>
+    <col min="7" max="9" width="26.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="11" max="12" width="26.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="2"/>
+    <col min="14" max="15" width="19.42578125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="32.42578125" style="2" customWidth="1"/>
+    <col min="19" max="21" width="17.7109375" style="2" customWidth="1"/>
+    <col min="22" max="24" width="19.28515625" style="2" customWidth="1"/>
+    <col min="25" max="27" width="19.140625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="19.7109375" style="2" customWidth="1"/>
+    <col min="29" max="29" width="19" style="2" customWidth="1"/>
+    <col min="30" max="30" width="16.7109375" style="2" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f t="shared" ref="E2:E48" si="0">INDEX($A$1:$A$326,MATCH(D2,$B$1:$B$326,0))</f>
+        <v>Babergh</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f>INDEX($A$1:$A$326,MATCH(G2,$B$1:$B$326,0))</f>
+        <v>Amber Valley</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f t="shared" ref="K2:K34" si="1">INDEX($A$1:$A$326,MATCH(J2,$B$1:$B$326,0))</f>
+        <v>Barking and Dagenham</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="str">
+        <f t="shared" ref="N2:N13" si="2">INDEX($A$1:$A$326,MATCH(M2,$B$1:$B$326,0))</f>
+        <v>County Durham</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="2" t="str">
+        <f t="shared" ref="Q2:Q40" si="3">INDEX($A$1:$A$326,MATCH(P2,$B$1:$B$326,0))</f>
+        <v>Allerdale</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="T2" s="2" t="str">
+        <f t="shared" ref="T2:T33" si="4">INDEX($A$1:$A$326,MATCH(S2,$B$1:$B$326,0))</f>
+        <v>Adur</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="W2" s="2" t="str">
+        <f t="shared" ref="W2:W38" si="5">INDEX($A$1:$A$326,MATCH(V2,$B$1:$B$326,0))</f>
+        <v>Bath and North East Somerset</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z2" s="2" t="str">
+        <f t="shared" ref="Z2:Z31" si="6">INDEX($A$1:$A$326,MATCH(Y2,$B$1:$B$326,0))</f>
+        <v>Birmingham</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC2" s="2" t="str">
+        <f t="shared" ref="AC2:AC22" si="7">INDEX($A$1:$A$326,MATCH(AB2,$B$1:$B$326,0))</f>
+        <v>Barnsley</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f>INDEX($A$1:$A$326,MATCH(D3,$B$1:$B$326,0))</f>
+        <v>Basildon</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H3" s="2" t="str">
+        <f>INDEX($A$1:$A$326,MATCH(G3,$B$1:$B$326,0))</f>
+        <v>Ashfield</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Barnet</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Darlington</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Barrow-in-Furness</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="T3" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Arun</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="W3" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Bournemouth</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z3" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Bromsgrove</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC3" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Bradford</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Bedford</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H4" s="2" t="str">
+        <f>INDEX($A$1:$A$326,MATCH(G4,$B$1:$B$326,0))</f>
+        <v>Bassetlaw</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="K4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Bexley</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Gateshead</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Blackburn with Darwen</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="T4" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Ashford</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="W4" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Bristol, City of</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z4" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Cannock Chase</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC4" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Calderdale</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Braintree</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H5" s="2" t="str">
+        <f>INDEX($A$1:$A$326,MATCH(G5,$B$1:$B$326,0))</f>
+        <v>Blaby</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="K5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Brent</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Hartlepool</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Blackpool</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="T5" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Aylesbury Vale</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="W5" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Cheltenham</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z5" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Coventry</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC5" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Craven</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Breckland</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" s="2" t="str">
+        <f>INDEX($A$1:$A$326,MATCH(G6,$B$1:$B$326,0))</f>
+        <v>Bolsover</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="K6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Bromley</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Middlesbrough</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q6" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Bolton</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="T6" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Basingstoke and Deane</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="W6" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Christchurch</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z6" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Dudley</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC6" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Doncaster</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Brentwood</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" s="2" t="str">
+        <f>INDEX($A$1:$A$326,MATCH(G7,$B$1:$B$326,0))</f>
+        <v>Boston</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="K7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Camden</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Newcastle upon Tyne</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Burnley</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="T7" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Bracknell Forest</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="W7" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Cornwall</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z7" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>East Staffordshire</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC7" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>East Riding of Yorkshire</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Broadland</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H8" s="2" t="str">
+        <f>INDEX($A$1:$A$326,MATCH(G8,$B$1:$B$326,0))</f>
+        <v>Broxtowe</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="K8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>City of London</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>North Tyneside</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Bury</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="T8" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Brighton and Hove</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="W8" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Cotswold</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z8" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Herefordshire, County of</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC8" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Hambleton</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Broxbourne</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9" s="2" t="str">
+        <f>INDEX($A$1:$A$326,MATCH(G9,$B$1:$B$326,0))</f>
+        <v>Charnwood</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="K9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Croydon</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Northumberland</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Carlisle</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="T9" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Canterbury</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="W9" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>East Devon</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z9" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Lichfield</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC9" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Harrogate</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Cambridge</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" s="2" t="str">
+        <f>INDEX($A$1:$A$326,MATCH(G10,$B$1:$B$326,0))</f>
+        <v>Chesterfield</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="K10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Ealing</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Redcar and Cleveland</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Cheshire East</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="T10" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Cherwell</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="W10" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>East Dorset</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z10" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Malvern Hills</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC10" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Kingston upon Hull, City of</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D11" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Castle Point</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H11" s="2" t="str">
+        <f>INDEX($A$1:$A$326,MATCH(G11,$B$1:$B$326,0))</f>
+        <v>Corby</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="K11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Enfield</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>South Tyneside</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Cheshire West and Chester</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="T11" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Chichester</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="W11" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Exeter</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z11" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Newcastle-under-Lyme</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC11" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Kirklees</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D12" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Central Bedfordshire</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H12" s="2" t="str">
+        <f>INDEX($A$1:$A$326,MATCH(G12,$B$1:$B$326,0))</f>
+        <v>Daventry</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="K12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Greenwich</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Stockton-on-Tees</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Chorley</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="T12" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Chiltern</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="W12" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Forest of Dean</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z12" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>North Warwickshire</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC12" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Leeds</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D13" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Chelmsford</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H13" s="2" t="str">
+        <f>INDEX($A$1:$A$326,MATCH(G13,$B$1:$B$326,0))</f>
+        <v>Derby</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="K13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hackney</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Sunderland</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Copeland</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="T13" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Crawley</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="W13" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Gloucester</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z13" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Nuneaton and Bedworth</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC13" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>North East Lincolnshire</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D14" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Colchester</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H14" s="2" t="str">
+        <f>INDEX($A$1:$A$326,MATCH(G14,$B$1:$B$326,0))</f>
+        <v>Derbyshire Dales</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="K14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hammersmith and Fulham</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Eden</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="T14" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Dartford</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="W14" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Isles of Scilly</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z14" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Redditch</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC14" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>North Lincolnshire</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D15" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Dacorum</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H15" s="2" t="str">
+        <f>INDEX($A$1:$A$326,MATCH(G15,$B$1:$B$326,0))</f>
+        <v>East Lindsey</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="K15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Haringey</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q15" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Fylde</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="T15" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Dover</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="W15" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Mendip</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z15" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Rugby</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC15" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Richmondshire</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D16" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>East Cambridgeshire</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H16" s="2" t="str">
+        <f>INDEX($A$1:$A$326,MATCH(G16,$B$1:$B$326,0))</f>
+        <v>East Northamptonshire</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="K16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Harrow</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Halton</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="T16" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>East Hampshire</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="W16" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Mid Devon</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z16" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Sandwell</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC16" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Rotherham</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D17" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>East Hertfordshire</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H17" s="2" t="str">
+        <f>INDEX($A$1:$A$326,MATCH(G17,$B$1:$B$326,0))</f>
+        <v>Erewash</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="K17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Havering</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q17" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Hyndburn</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="T17" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Eastbourne</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="W17" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>North Devon</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z17" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Shropshire</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC17" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Ryedale</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D18" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Epping Forest</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H18" s="2" t="str">
+        <f>INDEX($A$1:$A$326,MATCH(G18,$B$1:$B$326,0))</f>
+        <v>Gedling</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="K18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hillingdon</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q18" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Knowsley</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="T18" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Eastleigh</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="W18" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>North Dorset</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z18" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Solihull</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC18" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Scarborough</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D19" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Fenland</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H19" s="2" t="str">
+        <f>INDEX($A$1:$A$326,MATCH(G19,$B$1:$B$326,0))</f>
+        <v>Harborough</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="K19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Hounslow</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q19" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Lancaster</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="T19" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Elmbridge</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="W19" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>North Somerset</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z19" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>South Staffordshire</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC19" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Selby</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D20" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Forest Heath</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H20" s="2" t="str">
+        <f>INDEX($A$1:$A$326,MATCH(G20,$B$1:$B$326,0))</f>
+        <v>High Peak</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="K20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Islington</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q20" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Liverpool</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="T20" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Epsom and Ewell</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="W20" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Plymouth</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z20" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Stafford</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="AB20" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC20" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Sheffield</v>
+      </c>
+      <c r="AD20" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D21" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Great Yarmouth</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H21" s="2" t="str">
+        <f>INDEX($A$1:$A$326,MATCH(G21,$B$1:$B$326,0))</f>
+        <v>Hinckley and Bosworth</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="K21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Kensington and Chelsea</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q21" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Manchester</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="T21" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Fareham</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="W21" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Poole</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z21" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Staffordshire Moorlands</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="AB21" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC21" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Wakefield</v>
+      </c>
+      <c r="AD21" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D22" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Harlow</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H22" s="2" t="str">
+        <f>INDEX($A$1:$A$326,MATCH(G22,$B$1:$B$326,0))</f>
+        <v>Kettering</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="K22" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Kingston upon Thames</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q22" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Oldham</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="T22" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Gosport</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="W22" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Purbeck</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z22" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Stoke-on-Trent</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC22" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>York</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D23" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Hertsmere</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" s="2" t="str">
+        <f>INDEX($A$1:$A$326,MATCH(G23,$B$1:$B$326,0))</f>
+        <v>Leicester</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K23" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Lambeth</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q23" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Pendle</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="T23" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Gravesham</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="W23" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Sedgemoor</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z23" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Stratford-on-Avon</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D24" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Huntingdonshire</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H24" s="2" t="str">
+        <f>INDEX($A$1:$A$326,MATCH(G24,$B$1:$B$326,0))</f>
+        <v>Lincoln</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="K24" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Lewisham</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q24" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Preston</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="T24" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Guildford</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="W24" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>South Gloucestershire</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z24" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Tamworth</v>
+      </c>
+      <c r="AA24" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D25" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Ipswich</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H25" s="2" t="str">
+        <f>INDEX($A$1:$A$326,MATCH(G25,$B$1:$B$326,0))</f>
+        <v>Mansfield</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="K25" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Merton</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q25" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Ribble Valley</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="T25" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Hart</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="W25" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>South Hams</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z25" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Telford and Wrekin</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D26" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>King's Lynn and West Norfolk</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H26" s="2" t="str">
+        <f>INDEX($A$1:$A$326,MATCH(G26,$B$1:$B$326,0))</f>
+        <v>Melton</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="K26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Newham</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q26" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Rochdale</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="T26" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Hastings</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="W26" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>South Somerset</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z26" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Walsall</v>
+      </c>
+      <c r="AA26" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D27" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Luton</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H27" s="2" t="str">
+        <f>INDEX($A$1:$A$326,MATCH(G27,$B$1:$B$326,0))</f>
+        <v>Newark and Sherwood</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="K27" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Redbridge</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q27" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Rossendale</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="T27" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Havant</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="W27" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Stroud</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z27" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Warwick</v>
+      </c>
+      <c r="AA27" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D28" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Maldon</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H28" s="2" t="str">
+        <f>INDEX($A$1:$A$326,MATCH(G28,$B$1:$B$326,0))</f>
+        <v>North Kesteven</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="K28" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Richmond upon Thames</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q28" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Salford</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="T28" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Horsham</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="W28" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Swindon</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z28" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Wolverhampton</v>
+      </c>
+      <c r="AA28" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D29" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Mid Suffolk</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H29" s="2" t="str">
+        <f>INDEX($A$1:$A$326,MATCH(G29,$B$1:$B$326,0))</f>
+        <v>Northampton</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="K29" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Southwark</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q29" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Sefton</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="T29" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Isle of Wight</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="W29" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Taunton Deane</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="Y29" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z29" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Worcester</v>
+      </c>
+      <c r="AA29" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D30" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>North Hertfordshire</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H30" s="2" t="str">
+        <f>INDEX($A$1:$A$326,MATCH(G30,$B$1:$B$326,0))</f>
+        <v>Nottingham</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="K30" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Sutton</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q30" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>South Lakeland</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="T30" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Lewes</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="W30" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Teignbridge</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="Y30" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z30" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Wychavon</v>
+      </c>
+      <c r="AA30" s="2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D31" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>North Norfolk</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H31" s="2" t="str">
+        <f>INDEX($A$1:$A$326,MATCH(G31,$B$1:$B$326,0))</f>
+        <v>Oadby and Wigston</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="K31" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Tower Hamlets</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q31" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>South Ribble</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="T31" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Maidstone</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="W31" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Tewkesbury</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y31" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z31" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Wyre Forest</v>
+      </c>
+      <c r="AA31" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D32" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Norwich</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H32" s="2" t="str">
+        <f>INDEX($A$1:$A$326,MATCH(G32,$B$1:$B$326,0))</f>
+        <v>Rushcliffe</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="K32" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Waltham Forest</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q32" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>St. Helens</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="T32" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Medway</v>
+      </c>
+      <c r="U32" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="V32" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="W32" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Torbay</v>
+      </c>
+      <c r="X32" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D33" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Peterborough</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H33" s="2" t="str">
+        <f>INDEX($A$1:$A$326,MATCH(G33,$B$1:$B$326,0))</f>
+        <v>Rutland</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="K33" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Wandsworth</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q33" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Stockport</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="T33" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Mid Sussex</v>
+      </c>
+      <c r="U33" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="V33" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="W33" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Torridge</v>
+      </c>
+      <c r="X33" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D34" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Rochford</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H34" s="2" t="str">
+        <f>INDEX($A$1:$A$326,MATCH(G34,$B$1:$B$326,0))</f>
+        <v>South Derbyshire</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K34" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Westminster</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q34" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Tameside</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="T34" s="2" t="str">
+        <f t="shared" ref="T34:T65" si="8">INDEX($A$1:$A$326,MATCH(S34,$B$1:$B$326,0))</f>
+        <v>Milton Keynes</v>
+      </c>
+      <c r="U34" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="V34" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="W34" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>West Devon</v>
+      </c>
+      <c r="X34" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D35" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>South Cambridgeshire</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H35" s="2" t="str">
+        <f>INDEX($A$1:$A$326,MATCH(G35,$B$1:$B$326,0))</f>
+        <v>South Holland</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q35" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Trafford</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="T35" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Mole Valley</v>
+      </c>
+      <c r="U35" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="V35" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="W35" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>West Dorset</v>
+      </c>
+      <c r="X35" s="2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D36" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>South Norfolk</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H36" s="2" t="str">
+        <f>INDEX($A$1:$A$326,MATCH(G36,$B$1:$B$326,0))</f>
+        <v>South Kesteven</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q36" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Warrington</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="T36" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>New Forest</v>
+      </c>
+      <c r="U36" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="V36" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="W36" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>West Somerset</v>
+      </c>
+      <c r="X36" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D37" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Southend-on-Sea</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H37" s="2" t="str">
+        <f>INDEX($A$1:$A$326,MATCH(G37,$B$1:$B$326,0))</f>
+        <v>Wellingborough</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q37" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>West Lancashire</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="T37" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Oxford</v>
+      </c>
+      <c r="U37" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="V37" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="W37" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Weymouth and Portland</v>
+      </c>
+      <c r="X37" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D38" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>St Albans</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H38" s="2" t="str">
+        <f>INDEX($A$1:$A$326,MATCH(G38,$B$1:$B$326,0))</f>
+        <v>West Lindsey</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q38" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Wigan</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="T38" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Portsmouth</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="W38" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Wiltshire</v>
+      </c>
+      <c r="X38" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D39" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>St Edmundsbury</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q39" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Wirral</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="T39" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Reading</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D40" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Stevenage</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q40" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Wyre</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="T40" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Reigate and Banstead</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D41" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Suffolk Coastal</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="T41" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Rother</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D42" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Tendring</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="T42" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Runnymede</v>
+      </c>
+      <c r="U42" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D43" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Three Rivers</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="T43" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Rushmoor</v>
+      </c>
+      <c r="U43" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D44" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Thurrock</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="T44" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Sevenoaks</v>
+      </c>
+      <c r="U44" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D45" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Uttlesford</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="T45" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Shepway</v>
+      </c>
+      <c r="U45" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D46" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Watford</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="T46" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Slough</v>
+      </c>
+      <c r="U46" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D47" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Waveney</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="T47" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>South Bucks</v>
+      </c>
+      <c r="U47" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D48" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Welwyn Hatfield</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="S48" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="T48" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>South Oxfordshire</v>
+      </c>
+      <c r="U48" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S49" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="T49" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Southampton</v>
+      </c>
+      <c r="U49" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S50" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="T50" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Spelthorne</v>
+      </c>
+      <c r="U50" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S51" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="T51" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Surrey Heath</v>
+      </c>
+      <c r="U51" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S52" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="T52" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Swale</v>
+      </c>
+      <c r="U52" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>639</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S53" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="T53" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Tandridge</v>
+      </c>
+      <c r="U53" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S54" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="T54" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Test Valley</v>
+      </c>
+      <c r="U54" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S55" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="T55" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Thanet</v>
+      </c>
+      <c r="U55" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S56" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="T56" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Tonbridge and Malling</v>
+      </c>
+      <c r="U56" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S57" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="T57" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Tunbridge Wells</v>
+      </c>
+      <c r="U57" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S58" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="T58" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Vale of White Horse</v>
+      </c>
+      <c r="U58" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S59" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="T59" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Waverley</v>
+      </c>
+      <c r="U59" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S60" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="T60" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Wealden</v>
+      </c>
+      <c r="U60" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S61" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="T61" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>West Berkshire</v>
+      </c>
+      <c r="U61" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S62" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="T62" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>West Oxfordshire</v>
+      </c>
+      <c r="U62" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S63" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="T63" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Winchester</v>
+      </c>
+      <c r="U63" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S64" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="T64" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Windsor and Maidenhead</v>
+      </c>
+      <c r="U64" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S65" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="T65" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Woking</v>
+      </c>
+      <c r="U65" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S66" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="T66" s="2" t="str">
+        <f t="shared" ref="T66:T68" si="9">INDEX($A$1:$A$326,MATCH(S66,$B$1:$B$326,0))</f>
+        <v>Wokingham</v>
+      </c>
+      <c r="U66" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S67" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="T67" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Worthing</v>
+      </c>
+      <c r="U67" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S68" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="T68" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Wycombe</v>
+      </c>
+      <c r="U68" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
@@ -59346,7 +63103,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>138</v>
       </c>
@@ -59354,7 +63111,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>140</v>
       </c>
@@ -59362,7 +63119,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>142</v>
       </c>
@@ -59370,7 +63127,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>144</v>
       </c>
@@ -59378,7 +63135,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>146</v>
       </c>
@@ -59386,7 +63143,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>148</v>
       </c>
@@ -59394,7 +63151,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>150</v>
       </c>
@@ -59402,7 +63159,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>152</v>
       </c>
@@ -59410,7 +63167,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>154</v>
       </c>
@@ -59418,7 +63175,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>156</v>
       </c>
@@ -59426,7 +63183,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>158</v>
       </c>
@@ -61403,6 +65160,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="G2:H38">
+    <sortCondition ref="H2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -61411,8 +65171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A323"/>
   <sheetViews>
-    <sheetView topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="A323" sqref="A323"/>
+    <sheetView topLeftCell="A279" workbookViewId="0">
+      <selection activeCell="B327" sqref="B327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
